--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76025.43853382167</v>
+        <v>-85360.81265959865</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15297430.99340741</v>
+        <v>15297430.99340739</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2064755.32882902</v>
+        <v>1985341.662335596</v>
       </c>
     </row>
     <row r="11">
@@ -2081,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>165.905157406858</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>83.11291854610104</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>341.599878905958</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>161.4192943225031</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2476,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,19 +2526,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>84.85899356878417</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>157.6803779622394</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2555,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>424.2958575201043</v>
+        <v>35.52870802017732</v>
       </c>
       <c r="E26" t="n">
         <v>424.2958575201043</v>
@@ -2612,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>106.062636650466</v>
+        <v>84.85899356878417</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2795,13 +2797,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
-        <v>424.2958575201043</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="E29" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F29" t="n">
-        <v>373.7197913037078</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2886,7 +2888,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H30" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>82.37452594065145</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>84.85899356878446</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3029,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>374.4268935289279</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3080,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>323.5190143119671</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3165,7 +3167,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V33" t="n">
-        <v>197.1263427586206</v>
+        <v>197.1263427586207</v>
       </c>
       <c r="W33" t="n">
         <v>183.4695267241379</v>
@@ -3187,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>83.74928428444626</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>84.85899356878417</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3247,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3269,22 +3271,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>373.3071698245765</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>320.4517931110355</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3360,7 +3362,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H36" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>117.619567387887</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>49.82657368386896</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3503,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>403.8643073193109</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>388.4114697874283</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>8.031269268339379</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3673,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>190.894216701892</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>46.26926615534656</v>
       </c>
       <c r="C41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>43.48767645624598</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3834,7 +3836,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H42" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3955,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>93.41827306551629</v>
       </c>
       <c r="Y43" t="n">
-        <v>13.27415091459348</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>129.4972427124794</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.451086223607424</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1057.973739532767</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>890.3927724551322</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>890.3927724551322</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>461.8110981924006</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>267.8706684926505</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>687.9235674375537</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1107.976466382457</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1528.02936532736</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1697.183430080417</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1477.116202953456</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1477.116202953456</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1477.116202953456</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1477.116202953456</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1057.973739532767</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1057.973739532767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>540.1154135929012</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>433.6589524295435</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>338.5686635760967</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>244.4482489030504</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>161.0644105192121</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>75.67932078539593</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>60.00734176206595</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>384.5656667282782</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>804.6185656731816</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1224.671464618085</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1580.010651986078</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1580.010651986078</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1580.010651986078</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1580.010651986078</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1580.010651986078</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1697.183430080417</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1633.7279925288</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1503.549348859402</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1327.21280185937</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1128.09528392137</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>942.7725296545636</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>787.9050938934436</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>661.4193146726643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>383.2124341566272</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>210.6507226398521</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>210.6507226398521</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>210.6507226398521</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>452.1535503695694</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>452.1535503695694</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>761.8145120199619</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1181.483761245743</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1528.990655216085</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1697.183430080417</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1613.230987104558</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1334.797986357663</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1047.842478228094</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1047.842478228094</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>802.450723561506</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>575.0310528756143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1208.676101675288</v>
+        <v>462.9421322372</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.676101675288</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D23" t="n">
-        <v>1208.676101675288</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E23" t="n">
-        <v>863.6257189419966</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F23" t="n">
-        <v>435.7582893512044</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G23" t="n">
         <v>34.36045797446834</v>
@@ -6017,22 +6019,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T23" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U23" t="n">
-        <v>1613.531556264254</v>
+        <v>1230.41453689234</v>
       </c>
       <c r="V23" t="n">
-        <v>1613.531556264254</v>
+        <v>867.7975868261667</v>
       </c>
       <c r="W23" t="n">
-        <v>1208.676101675288</v>
+        <v>462.9421322372</v>
       </c>
       <c r="X23" t="n">
-        <v>1208.676101675288</v>
+        <v>462.9421322372</v>
       </c>
       <c r="Y23" t="n">
-        <v>1208.676101675288</v>
+        <v>462.9421322372</v>
       </c>
     </row>
     <row r="24">
@@ -6045,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6054,22 +6056,22 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
         <v>1159.957753041174</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.94366860160834</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C25" t="n">
-        <v>33.94366860160834</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D25" t="n">
-        <v>33.94366860160834</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E25" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F25" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G25" t="n">
         <v>33.94366860160834</v>
@@ -6154,10 +6156,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M25" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N25" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O25" t="n">
         <v>1181.483761245743</v>
@@ -6172,25 +6174,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S25" t="n">
-        <v>1590.049453665805</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T25" t="n">
-        <v>1344.17000724426</v>
+        <v>1357.251131031019</v>
       </c>
       <c r="U25" t="n">
-        <v>1065.737006497366</v>
+        <v>1357.251131031019</v>
       </c>
       <c r="V25" t="n">
-        <v>778.7814983677961</v>
+        <v>1357.251131031019</v>
       </c>
       <c r="W25" t="n">
-        <v>506.7550939540876</v>
+        <v>1357.251131031019</v>
       </c>
       <c r="X25" t="n">
-        <v>261.3633392875001</v>
+        <v>1111.859376364431</v>
       </c>
       <c r="Y25" t="n">
-        <v>33.94366860160834</v>
+        <v>884.4397056785397</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1697.183430080417</v>
+        <v>926.2803563138972</v>
       </c>
       <c r="C26" t="n">
-        <v>1318.974446717864</v>
+        <v>926.2803563138972</v>
       </c>
       <c r="D26" t="n">
         <v>890.3927724551322</v>
@@ -6224,19 +6226,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L26" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M26" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N26" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O26" t="n">
         <v>687.9235674375537</v>
@@ -6260,16 +6262,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V26" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W26" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="X26" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="Y26" t="n">
-        <v>1697.183430080417</v>
+        <v>926.2803563138972</v>
       </c>
     </row>
     <row r="27">
@@ -6382,19 +6384,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>68.8461756808652</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K28" t="n">
-        <v>343.6046302520008</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L28" t="n">
-        <v>761.8145120199619</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M28" t="n">
-        <v>761.8145120199619</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N28" t="n">
-        <v>761.8145120199619</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O28" t="n">
         <v>1181.483761245743</v>
@@ -6406,7 +6408,7 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
         <v>1590.049453665805</v>
@@ -6443,10 +6445,10 @@
         <v>1268.601755817686</v>
       </c>
       <c r="D29" t="n">
-        <v>840.020081554954</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E29" t="n">
-        <v>411.4384072922223</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F29" t="n">
         <v>33.94366860160834</v>
@@ -6464,19 +6466,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L29" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M29" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N29" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O29" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P29" t="n">
         <v>1107.976466382457</v>
@@ -6531,7 +6533,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6543,19 +6545,19 @@
         <v>358.5019935678207</v>
       </c>
       <c r="K30" t="n">
+        <v>358.5019935678207</v>
+      </c>
+      <c r="L30" t="n">
+        <v>358.5019935678207</v>
+      </c>
+      <c r="M30" t="n">
         <v>778.554892512724</v>
       </c>
-      <c r="L30" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1159.957753041174</v>
-      </c>
       <c r="N30" t="n">
-        <v>1159.957753041174</v>
+        <v>778.554892512724</v>
       </c>
       <c r="O30" t="n">
-        <v>1159.957753041174</v>
+        <v>778.554892512724</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6595,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>205.8102096861769</v>
+        <v>119.6598237215927</v>
       </c>
       <c r="C31" t="n">
-        <v>205.8102096861769</v>
+        <v>119.6598237215927</v>
       </c>
       <c r="D31" t="n">
-        <v>205.8102096861769</v>
+        <v>119.6598237215927</v>
       </c>
       <c r="E31" t="n">
-        <v>122.603617826933</v>
+        <v>119.6598237215927</v>
       </c>
       <c r="F31" t="n">
-        <v>122.603617826933</v>
+        <v>119.6598237215927</v>
       </c>
       <c r="G31" t="n">
-        <v>122.603617826933</v>
+        <v>119.6598237215927</v>
       </c>
       <c r="H31" t="n">
-        <v>122.603617826933</v>
+        <v>119.6598237215927</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K31" t="n">
-        <v>395.2818083374338</v>
+        <v>91.74450617142992</v>
       </c>
       <c r="L31" t="n">
-        <v>813.4916901053949</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M31" t="n">
-        <v>1181.483761245743</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N31" t="n">
-        <v>1181.483761245743</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O31" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P31" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q31" t="n">
         <v>1697.183430080417</v>
@@ -6646,25 +6648,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S31" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T31" t="n">
-        <v>1270.644793662241</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U31" t="n">
-        <v>992.2117929153466</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V31" t="n">
-        <v>705.2562847857771</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W31" t="n">
-        <v>433.2298803720686</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X31" t="n">
-        <v>433.2298803720686</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="Y31" t="n">
-        <v>205.8102096861769</v>
+        <v>119.6598237215927</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1697.183430080417</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C32" t="n">
-        <v>1318.974446717864</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D32" t="n">
-        <v>890.3927724551322</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E32" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F32" t="n">
         <v>33.94366860160834</v>
@@ -6728,22 +6730,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T32" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U32" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V32" t="n">
-        <v>1697.183430080417</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="W32" t="n">
-        <v>1697.183430080417</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="X32" t="n">
-        <v>1697.183430080417</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="Y32" t="n">
-        <v>1697.183430080417</v>
+        <v>891.1070171270717</v>
       </c>
     </row>
     <row r="33">
@@ -6756,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6765,10 +6767,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6780,19 +6782,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K33" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L33" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M33" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N33" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O33" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P33" t="n">
         <v>1159.957753041174</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.94366860160834</v>
+        <v>637.5656745568458</v>
       </c>
       <c r="C34" t="n">
-        <v>33.94366860160834</v>
+        <v>465.0039630400707</v>
       </c>
       <c r="D34" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E34" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F34" t="n">
         <v>33.94366860160834</v>
@@ -6856,25 +6858,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K34" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L34" t="n">
-        <v>813.4916901053949</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M34" t="n">
-        <v>1181.483761245743</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.483761245743</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O34" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P34" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
@@ -6883,25 +6885,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1590.049453665805</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T34" t="n">
-        <v>1344.17000724426</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U34" t="n">
-        <v>1065.737006497366</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V34" t="n">
-        <v>778.7814983677961</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W34" t="n">
-        <v>506.7550939540876</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="X34" t="n">
-        <v>261.3633392875001</v>
+        <v>864.9853452427376</v>
       </c>
       <c r="Y34" t="n">
-        <v>33.94366860160834</v>
+        <v>637.5656745568458</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.601755817686</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D35" t="n">
-        <v>840.020081554954</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E35" t="n">
-        <v>411.4384072922223</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F35" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G35" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H35" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I35" t="n">
         <v>33.94366860160834</v>
@@ -6938,19 +6940,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L35" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M35" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N35" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O35" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P35" t="n">
         <v>1107.976466382457</v>
@@ -6968,19 +6970,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U35" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V35" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W35" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X35" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y35" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="36">
@@ -7002,10 +7004,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241.4112616530815</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="C37" t="n">
-        <v>122.603617826933</v>
+        <v>419.9095375572969</v>
       </c>
       <c r="D37" t="n">
-        <v>122.603617826933</v>
+        <v>254.0315447588195</v>
       </c>
       <c r="E37" t="n">
-        <v>122.603617826933</v>
+        <v>84.27354100955679</v>
       </c>
       <c r="F37" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G37" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H37" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I37" t="n">
         <v>33.94366860160834</v>
@@ -7102,10 +7104,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M37" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N37" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O37" t="n">
         <v>1181.483761245743</v>
@@ -7120,25 +7122,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T37" t="n">
-        <v>1270.644793662241</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U37" t="n">
-        <v>992.2117929153466</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V37" t="n">
-        <v>705.2562847857771</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W37" t="n">
-        <v>433.2298803720686</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X37" t="n">
-        <v>433.2298803720686</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y37" t="n">
-        <v>433.2298803720686</v>
+        <v>592.4712490740719</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>869.7548429593813</v>
+        <v>462.9421322372</v>
       </c>
       <c r="C38" t="n">
-        <v>869.7548429593813</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D38" t="n">
-        <v>869.7548429593813</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E38" t="n">
-        <v>461.8110981924006</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F38" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G38" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H38" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I38" t="n">
         <v>33.94366860160834</v>
@@ -7202,22 +7204,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W38" t="n">
-        <v>1697.183430080417</v>
+        <v>462.9421322372</v>
       </c>
       <c r="X38" t="n">
-        <v>1278.040966659728</v>
+        <v>462.9421322372</v>
       </c>
       <c r="Y38" t="n">
-        <v>869.7548429593813</v>
+        <v>462.9421322372</v>
       </c>
     </row>
     <row r="39">
@@ -7230,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7239,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7254,19 +7256,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K39" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M39" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N39" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O39" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P39" t="n">
         <v>1159.957753041174</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>546.2867191875922</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="C40" t="n">
-        <v>546.2867191875922</v>
+        <v>554.1123945636301</v>
       </c>
       <c r="D40" t="n">
-        <v>380.4087263891149</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E40" t="n">
-        <v>210.6507226398521</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F40" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G40" t="n">
         <v>33.94366860160834</v>
@@ -7354,28 +7356,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T40" t="n">
-        <v>1675.765608785789</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U40" t="n">
-        <v>1482.943167672767</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V40" t="n">
-        <v>1482.943167672767</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.916763259059</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="X40" t="n">
-        <v>965.5250085924711</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="Y40" t="n">
-        <v>738.1053379065793</v>
+        <v>726.6741060804052</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>864.3399636139361</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="C41" t="n">
-        <v>435.7582893512044</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="D41" t="n">
-        <v>435.7582893512044</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="E41" t="n">
-        <v>435.7582893512044</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="F41" t="n">
-        <v>435.7582893512044</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G41" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H41" t="n">
         <v>34.36045797446834</v>
@@ -7436,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T41" t="n">
-        <v>1653.256484165017</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U41" t="n">
-        <v>1653.256484165017</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V41" t="n">
-        <v>1290.639534098844</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W41" t="n">
-        <v>1290.639534098844</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X41" t="n">
-        <v>1290.639534098844</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y41" t="n">
-        <v>1290.639534098844</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="42">
@@ -7479,7 +7481,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7570,19 +7572,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K43" t="n">
-        <v>269.215608100497</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>269.215608100497</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M43" t="n">
-        <v>689.2685070454004</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N43" t="n">
-        <v>1109.321405990304</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O43" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P43" t="n">
         <v>1528.990655216085</v>
@@ -7591,25 +7593,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S43" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T43" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U43" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V43" t="n">
-        <v>1229.568731954216</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W43" t="n">
-        <v>1229.568731954216</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="X43" t="n">
-        <v>1229.568731954216</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y43" t="n">
         <v>1216.160498707152</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>35.40941226181786</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>35.40941226181786</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>35.40941226181786</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>35.40941226181786</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>35.40941226181786</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>227.228030980805</v>
       </c>
     </row>
   </sheetData>
@@ -9410,19 +9412,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9562,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9802,13 +9804,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O26" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -10030,22 +10032,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10112,7 +10114,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P29" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -10191,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>385.2554146752024</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10428,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10513,19 +10515,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,22 +10588,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
         <v>424.2958575201044</v>
@@ -10750,13 +10752,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10902,10 +10904,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -11218,22 +11220,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>424.2958575201044</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11306,19 +11308,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11467,13 +11469,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23969,16 +23971,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>267.8558906815529</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -24020,7 +24022,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -24032,7 +24034,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="22">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -24136,7 +24138,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -24178,22 +24180,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>160.3077334112282</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24206,19 +24208,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>87.83711848732975</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
@@ -24257,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>95.21078533365016</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24364,19 +24366,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.78996144619913</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>85.74027399508992</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24443,10 +24445,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>59.33415455948301</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>7.254829457195569</v>
+        <v>396.0219789571226</v>
       </c>
       <c r="E26" t="n">
         <v>5.14113987318342</v>
@@ -24500,7 +24502,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24509,7 +24511,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>51.58631836451733</v>
+        <v>72.78996144619913</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24683,13 +24685,13 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
-        <v>7.254829457195569</v>
+        <v>57.123793448372</v>
       </c>
       <c r="E29" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F29" t="n">
-        <v>49.86896399117649</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
@@ -24844,7 +24846,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>85.68589777111866</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -24856,7 +24858,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.914356164286957</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24917,16 +24919,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>59.33415455948301</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D32" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -24968,13 +24970,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>35.47176625354462</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -25075,16 +25077,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>80.46992858604627</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.78996144619913</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25157,22 +25159,22 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>50.28158547030785</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,13 +25210,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>80.35510693204151</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>53.2165270137203</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>125.1134098139924</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -25330,7 +25332,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25391,16 +25393,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>25.57269007397684</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -25409,7 +25411,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,22 +25444,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>12.39543025564871</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>156.1879436021532</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>84.75445403753369</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>375.7673086247121</v>
       </c>
       <c r="C41" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>174.3788783994458</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>149.5195640544054</v>
       </c>
       <c r="Y43" t="n">
-        <v>211.8713230644393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25877,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25916,16 +25918,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>271.3096573305976</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -26035,7 +26037,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>162.4842760008232</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26071,25 +26073,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>373115.365311418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>373115.3653114178</v>
+        <v>373115.365311418</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>373115.3653114177</v>
+        <v>373115.3653114179</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>373115.3653114179</v>
+        <v>373115.3653114177</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>373115.3653114179</v>
       </c>
     </row>
   </sheetData>
@@ -26329,31 +26331,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>72121.40253724411</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>72121.4025372441</v>
       </c>
       <c r="J2" t="n">
+        <v>72121.4025372441</v>
+      </c>
+      <c r="K2" t="n">
         <v>72121.40253724411</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>72121.4025372441</v>
-      </c>
-      <c r="L2" t="n">
-        <v>72121.40253724411</v>
       </c>
       <c r="M2" t="n">
         <v>72121.4025372441</v>
       </c>
       <c r="N2" t="n">
-        <v>72121.4025372441</v>
+        <v>72121.40253724411</v>
       </c>
       <c r="O2" t="n">
         <v>72121.40253724411</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>72121.4025372441</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>114478.8410216418</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>112829.1787276037</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26433,16 +26435,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>24896.51517712573</v>
-      </c>
-      <c r="I4" t="n">
-        <v>24896.51517712572</v>
       </c>
       <c r="J4" t="n">
         <v>24896.51517712573</v>
       </c>
       <c r="K4" t="n">
-        <v>24896.51517712572</v>
+        <v>24896.51517712573</v>
       </c>
       <c r="L4" t="n">
         <v>24896.51517712573</v>
@@ -26457,7 +26459,7 @@
         <v>24896.51517712573</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>24896.51517712573</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>25797.18813722234</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>25797.18813722234</v>
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26537,31 +26539,31 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-93051.1417987458</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>-91401.47950470763</v>
+      </c>
+      <c r="J6" t="n">
         <v>21427.69922289603</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>21427.69922289604</v>
       </c>
-      <c r="K6" t="n">
-        <v>21427.69922289603</v>
-      </c>
       <c r="L6" t="n">
-        <v>21427.69922289604</v>
+        <v>21427.69922289602</v>
       </c>
       <c r="M6" t="n">
         <v>21427.69922289602</v>
       </c>
       <c r="N6" t="n">
-        <v>21427.69922289602</v>
+        <v>21427.69922289604</v>
       </c>
       <c r="O6" t="n">
         <v>21427.69922289604</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>21427.69922289603</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26807,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>424.2958575201043</v>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36130,19 +36132,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,22 +36284,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36522,13 +36524,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -36604,10 +36606,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O26" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -36832,7 +36834,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36844,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P29" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -36911,22 +36913,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>385.2554146752024</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37233,19 +37235,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,22 +37308,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
         <v>424.2958575201044</v>
@@ -37470,13 +37472,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -37622,10 +37624,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -37938,22 +37940,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>424.2958575201044</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38026,19 +38028,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38187,13 +38189,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-85360.81265959865</v>
+        <v>-94765.35262236674</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15297430.99340739</v>
+        <v>15297430.9934074</v>
       </c>
     </row>
     <row r="9">
@@ -2323,10 +2323,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>137.1823067043157</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>161.4192943225031</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>157.6803779622394</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>192.9059839739294</v>
       </c>
     </row>
     <row r="26">
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>35.52870802017732</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>424.2958575201043</v>
+        <v>123.7333240502662</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>161.98774626695</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>84.85899356878417</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2775,13 +2775,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,16 +2797,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>379.6984706573262</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>84.85899356878446</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>164.4890657955269</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3088,13 +3088,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>323.5190143119671</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>306.0087361885582</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H33" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V33" t="n">
-        <v>197.1263427586207</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W33" t="n">
         <v>183.4695267241379</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>83.74928428444626</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3249,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>226.5965602026402</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>320.4517931110355</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>347.0079717889944</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>49.82657368386896</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>193.2064683147219</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>388.4114697874283</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>195.8203185554688</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>70.81295917885804</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>8.031269268339379</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3720,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.26926615534656</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>40.77173170135759</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>93.41827306551629</v>
+        <v>131.232492817465</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>129.4972427124794</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>36.53363930959885</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>163.8614684642755</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.451086223607424</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>462.9421322372</v>
+        <v>1029.675003697088</v>
       </c>
       <c r="C23" t="n">
-        <v>34.36045797446834</v>
+        <v>601.0933294343558</v>
       </c>
       <c r="D23" t="n">
-        <v>34.36045797446834</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E23" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F23" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G23" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H23" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
@@ -6016,25 +6016,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U23" t="n">
-        <v>1230.41453689234</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V23" t="n">
-        <v>867.7975868261667</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W23" t="n">
-        <v>462.9421322372</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="X23" t="n">
-        <v>462.9421322372</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="Y23" t="n">
-        <v>462.9421322372</v>
+        <v>1029.675003697088</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6056,10 +6056,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>884.4397056785397</v>
+        <v>346.4075544280089</v>
       </c>
       <c r="C25" t="n">
-        <v>711.8779941617646</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="D25" t="n">
-        <v>546.0000013632873</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="E25" t="n">
-        <v>376.2419976140245</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F25" t="n">
-        <v>199.5349435757807</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G25" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H25" t="n">
         <v>33.94366860160834</v>
@@ -6153,13 +6153,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M25" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N25" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O25" t="n">
         <v>1181.483761245743</v>
@@ -6171,28 +6171,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T25" t="n">
-        <v>1357.251131031019</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U25" t="n">
-        <v>1357.251131031019</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V25" t="n">
-        <v>1357.251131031019</v>
+        <v>1005.1071068273</v>
       </c>
       <c r="W25" t="n">
-        <v>1357.251131031019</v>
+        <v>733.0807024135913</v>
       </c>
       <c r="X25" t="n">
-        <v>1111.859376364431</v>
+        <v>733.0807024135913</v>
       </c>
       <c r="Y25" t="n">
-        <v>884.4397056785397</v>
+        <v>538.226173146996</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>926.2803563138972</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="C26" t="n">
-        <v>926.2803563138972</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="D26" t="n">
-        <v>890.3927724551322</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="E26" t="n">
-        <v>461.8110981924006</v>
+        <v>863.6257189419966</v>
       </c>
       <c r="F26" t="n">
-        <v>33.94366860160834</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G26" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H26" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I26" t="n">
         <v>33.94366860160834</v>
@@ -6253,25 +6253,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V26" t="n">
-        <v>1334.566480014244</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W26" t="n">
-        <v>1334.566480014244</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="X26" t="n">
-        <v>1334.566480014244</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="Y26" t="n">
-        <v>926.2803563138972</v>
+        <v>988.6088745483262</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.94366860160834</v>
+        <v>705.7439765407341</v>
       </c>
       <c r="C28" t="n">
-        <v>33.94366860160834</v>
+        <v>705.7439765407341</v>
       </c>
       <c r="D28" t="n">
-        <v>33.94366860160834</v>
+        <v>539.8659837422568</v>
       </c>
       <c r="E28" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F28" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G28" t="n">
         <v>33.94366860160834</v>
@@ -6390,13 +6390,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L28" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M28" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N28" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O28" t="n">
         <v>1181.483761245743</v>
@@ -6411,25 +6411,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
-        <v>1590.049453665805</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T28" t="n">
-        <v>1344.17000724426</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U28" t="n">
-        <v>1065.737006497366</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V28" t="n">
-        <v>778.7814983677961</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W28" t="n">
-        <v>506.7550939540876</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X28" t="n">
-        <v>261.3633392875001</v>
+        <v>705.7439765407341</v>
       </c>
       <c r="Y28" t="n">
-        <v>33.94366860160834</v>
+        <v>705.7439765407341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1697.183430080417</v>
+        <v>846.059151609114</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.601755817686</v>
+        <v>417.4774773463823</v>
       </c>
       <c r="D29" t="n">
-        <v>890.3927724551322</v>
+        <v>417.4774773463823</v>
       </c>
       <c r="E29" t="n">
-        <v>461.8110981924006</v>
+        <v>417.4774773463823</v>
       </c>
       <c r="F29" t="n">
-        <v>33.94366860160834</v>
+        <v>417.4774773463823</v>
       </c>
       <c r="G29" t="n">
         <v>33.94366860160834</v>
@@ -6466,19 +6466,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L29" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M29" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N29" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O29" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P29" t="n">
         <v>1107.976466382457</v>
@@ -6490,25 +6490,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S29" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U29" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V29" t="n">
-        <v>1697.183430080417</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W29" t="n">
-        <v>1697.183430080417</v>
+        <v>846.059151609114</v>
       </c>
       <c r="X29" t="n">
-        <v>1697.183430080417</v>
+        <v>846.059151609114</v>
       </c>
       <c r="Y29" t="n">
-        <v>1697.183430080417</v>
+        <v>846.059151609114</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6530,34 +6530,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I30" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J30" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K30" t="n">
-        <v>358.5019935678207</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
-        <v>358.5019935678207</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M30" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N30" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O30" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>119.6598237215927</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="C31" t="n">
-        <v>119.6598237215927</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="D31" t="n">
-        <v>119.6598237215927</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E31" t="n">
-        <v>119.6598237215927</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F31" t="n">
-        <v>119.6598237215927</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G31" t="n">
-        <v>119.6598237215927</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H31" t="n">
-        <v>119.6598237215927</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K31" t="n">
-        <v>91.74450617142992</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>509.954387939391</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M31" t="n">
-        <v>509.954387939391</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N31" t="n">
-        <v>930.0072868842942</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O31" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P31" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q31" t="n">
         <v>1697.183430080417</v>
@@ -6648,25 +6648,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S31" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T31" t="n">
-        <v>1429.886162364244</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U31" t="n">
-        <v>1151.45316161735</v>
+        <v>1350.373668573153</v>
       </c>
       <c r="V31" t="n">
-        <v>864.4976534877803</v>
+        <v>1063.418160443583</v>
       </c>
       <c r="W31" t="n">
-        <v>592.4712490740719</v>
+        <v>791.3917560298748</v>
       </c>
       <c r="X31" t="n">
-        <v>347.0794944074844</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="Y31" t="n">
-        <v>119.6598237215927</v>
+        <v>546.0000013632873</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>891.1070171270717</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C32" t="n">
-        <v>462.52534286434</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D32" t="n">
-        <v>462.52534286434</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E32" t="n">
         <v>33.94366860160834</v>
@@ -6727,25 +6727,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U32" t="n">
-        <v>1217.893900270473</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V32" t="n">
-        <v>891.1070171270717</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W32" t="n">
-        <v>891.1070171270717</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X32" t="n">
-        <v>891.1070171270717</v>
+        <v>462.52534286434</v>
       </c>
       <c r="Y32" t="n">
-        <v>891.1070171270717</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6782,19 +6782,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K33" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M33" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N33" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O33" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P33" t="n">
         <v>1159.957753041174</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>637.5656745568458</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C34" t="n">
-        <v>465.0039630400707</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D34" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E34" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F34" t="n">
         <v>33.94366860160834</v>
@@ -6858,52 +6858,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M34" t="n">
-        <v>726.9120049407049</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N34" t="n">
-        <v>930.0072868842942</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O34" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P34" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S34" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T34" t="n">
-        <v>1675.765608785789</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U34" t="n">
-        <v>1397.332608038895</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V34" t="n">
-        <v>1110.377099909325</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W34" t="n">
-        <v>1110.377099909325</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X34" t="n">
-        <v>864.9853452427376</v>
+        <v>225.7622873205955</v>
       </c>
       <c r="Y34" t="n">
-        <v>637.5656745568458</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>751.6554974211238</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C35" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E35" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F35" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G35" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H35" t="n">
         <v>33.94366860160834</v>
@@ -6940,16 +6940,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O35" t="n">
         <v>687.9235674375537</v>
@@ -6967,22 +6967,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U35" t="n">
-        <v>1437.961127397434</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V35" t="n">
-        <v>1075.344177331261</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W35" t="n">
-        <v>751.6554974211238</v>
+        <v>813.0384456815061</v>
       </c>
       <c r="X35" t="n">
-        <v>751.6554974211238</v>
+        <v>462.52534286434</v>
       </c>
       <c r="Y35" t="n">
-        <v>751.6554974211238</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7022,16 +7022,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P36" t="n">
         <v>1159.957753041174</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>592.4712490740719</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="C37" t="n">
-        <v>419.9095375572969</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="D37" t="n">
-        <v>254.0315447588195</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="E37" t="n">
-        <v>84.27354100955679</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F37" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G37" t="n">
         <v>33.94366860160834</v>
@@ -7104,10 +7104,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M37" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N37" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O37" t="n">
         <v>1181.483761245743</v>
@@ -7122,25 +7122,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T37" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U37" t="n">
-        <v>1151.45316161735</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V37" t="n">
-        <v>864.4976534877803</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W37" t="n">
-        <v>592.4712490740719</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X37" t="n">
-        <v>592.4712490740719</v>
+        <v>788.5312367299223</v>
       </c>
       <c r="Y37" t="n">
-        <v>592.4712490740719</v>
+        <v>561.1115660440305</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>462.9421322372</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C38" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D38" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E38" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F38" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G38" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H38" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I38" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J38" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K38" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L38" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M38" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N38" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O38" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P38" t="n">
         <v>1107.976466382457</v>
@@ -7201,25 +7201,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U38" t="n">
-        <v>1217.893900270473</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V38" t="n">
-        <v>855.2769502042993</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W38" t="n">
-        <v>462.9421322372</v>
+        <v>949.4537989923044</v>
       </c>
       <c r="X38" t="n">
-        <v>462.9421322372</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y38" t="n">
-        <v>462.9421322372</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7241,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>726.6741060804052</v>
+        <v>714.6817019292769</v>
       </c>
       <c r="C40" t="n">
-        <v>554.1123945636301</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="D40" t="n">
-        <v>546.0000013632873</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E40" t="n">
         <v>376.2419976140245</v>
@@ -7332,19 +7332,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>120.5233537662982</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K40" t="n">
-        <v>395.2818083374338</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L40" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M40" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N40" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7368,16 +7368,16 @@
         <v>1013.629614209975</v>
       </c>
       <c r="V40" t="n">
-        <v>726.6741060804052</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W40" t="n">
-        <v>726.6741060804052</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="X40" t="n">
-        <v>726.6741060804052</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="Y40" t="n">
-        <v>726.6741060804052</v>
+        <v>786.209943524083</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>724.8884439079882</v>
+        <v>503.4114549403693</v>
       </c>
       <c r="C41" t="n">
-        <v>724.8884439079882</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="D41" t="n">
-        <v>724.8884439079882</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E41" t="n">
-        <v>724.8884439079882</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F41" t="n">
-        <v>724.8884439079882</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G41" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H41" t="n">
         <v>34.36045797446834</v>
@@ -7438,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T41" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U41" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V41" t="n">
-        <v>771.6250763881362</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W41" t="n">
-        <v>771.6250763881362</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X41" t="n">
-        <v>771.6250763881362</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="Y41" t="n">
-        <v>771.6250763881362</v>
+        <v>929.7110254252771</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7478,10 +7478,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7496,19 +7496,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M42" t="n">
-        <v>804.6185656731816</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="N42" t="n">
-        <v>804.6185656731816</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O42" t="n">
-        <v>804.6185656731816</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P42" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q42" t="n">
         <v>1580.010651986078</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1024.341879988165</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C43" t="n">
-        <v>851.7801684713901</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D43" t="n">
-        <v>685.9021756729128</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E43" t="n">
-        <v>516.14417192365</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F43" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G43" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H43" t="n">
         <v>33.94366860160834</v>
@@ -7569,16 +7569,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K43" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L43" t="n">
-        <v>395.2818083374338</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M43" t="n">
-        <v>395.2818083374338</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N43" t="n">
         <v>761.8145120199619</v>
@@ -7593,28 +7593,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S43" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T43" t="n">
-        <v>1537.942061378414</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U43" t="n">
-        <v>1537.942061378414</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V43" t="n">
-        <v>1537.942061378414</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="W43" t="n">
-        <v>1537.942061378414</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="X43" t="n">
-        <v>1443.580169393044</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y43" t="n">
-        <v>1216.160498707152</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>724.4716545351282</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C44" t="n">
-        <v>724.4716545351282</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D44" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E44" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F44" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G44" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H44" t="n">
         <v>33.94366860160834</v>
@@ -7648,16 +7648,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L44" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M44" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N44" t="n">
         <v>453.9965675465116</v>
@@ -7675,25 +7675,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T44" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U44" t="n">
-        <v>1217.893900270473</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V44" t="n">
-        <v>855.2769502042993</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W44" t="n">
-        <v>724.4716545351282</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="X44" t="n">
-        <v>724.4716545351282</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="Y44" t="n">
-        <v>724.4716545351282</v>
+        <v>1317.406587611979</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
         <v>338.5686635760967</v>
@@ -7715,10 +7715,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
         <v>33.94366860160834</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.40941226181786</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="C46" t="n">
-        <v>35.40941226181786</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="D46" t="n">
-        <v>35.40941226181786</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="E46" t="n">
-        <v>35.40941226181786</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F46" t="n">
-        <v>35.40941226181786</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G46" t="n">
         <v>33.94366860160834</v>
@@ -7806,16 +7806,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K46" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L46" t="n">
-        <v>761.8145120199619</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M46" t="n">
-        <v>761.8145120199619</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N46" t="n">
         <v>761.8145120199619</v>
@@ -7830,28 +7830,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T46" t="n">
-        <v>1292.062614956869</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U46" t="n">
-        <v>1013.629614209975</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V46" t="n">
-        <v>726.6741060804052</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W46" t="n">
-        <v>454.6477016666967</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X46" t="n">
-        <v>454.6477016666967</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y46" t="n">
-        <v>227.228030980805</v>
+        <v>365.0515783881802</v>
       </c>
     </row>
   </sheetData>
@@ -9801,7 +9801,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -9810,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -10038,16 +10038,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10114,7 +10114,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P29" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>58.3846844139612</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10281,16 +10281,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10515,19 +10515,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N34" t="n">
-        <v>205.1467494379689</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -10670,7 +10670,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -10752,13 +10752,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11144,10 +11144,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11217,19 +11217,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="N43" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>236.2898988798406</v>
@@ -11454,19 +11454,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -24211,10 +24211,10 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>294.3683802729843</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -24226,7 +24226,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>95.21078533365016</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>85.74027399508992</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>32.23949000510339</v>
       </c>
     </row>
     <row r="26">
@@ -24448,22 +24448,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>396.0219789571226</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>5.14113987318342</v>
+        <v>305.7036733430215</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24606,16 +24606,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>6.072677444820101</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>72.78996144619913</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24685,16 +24685,16 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
-        <v>57.123793448372</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>17.68538240564254</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -24739,10 +24739,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24846,19 +24846,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>2.914356164286957</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>111.1596049438988</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24925,7 +24925,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.47176625354462</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>108.9423025979242</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>80.46992858604627</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>16.34127691728145</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -25207,19 +25207,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>80.35510693204151</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>67.94306699748796</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>125.1134098139924</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>49.73136880519979</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25408,10 +25408,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>12.39543025564871</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>219.1307202310136</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>119.0874733529392</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>156.1879436021532</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -25617,7 +25617,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>375.7673086247121</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>392.9893163870533</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25639,13 +25639,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -25851,7 +25851,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>149.5195640544054</v>
+        <v>111.7053443024566</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25879,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>271.3096573305976</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>367.6696231537442</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>26.03896406752173</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -26037,7 +26037,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>162.4842760008232</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>373115.3653114179</v>
+        <v>373115.3653114177</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>373115.3653114178</v>
+        <v>373115.3653114179</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>373115.365311418</v>
+        <v>373115.3653114179</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>373115.3653114179</v>
+        <v>373115.3653114178</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>373115.3653114179</v>
+        <v>373115.3653114178</v>
       </c>
     </row>
   </sheetData>
@@ -26334,13 +26334,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>72121.40253724411</v>
+      </c>
+      <c r="J2" t="n">
+        <v>72121.40253724411</v>
+      </c>
+      <c r="K2" t="n">
         <v>72121.4025372441</v>
-      </c>
-      <c r="J2" t="n">
-        <v>72121.4025372441</v>
-      </c>
-      <c r="K2" t="n">
-        <v>72121.40253724411</v>
       </c>
       <c r="L2" t="n">
         <v>72121.4025372441</v>
@@ -26352,10 +26352,10 @@
         <v>72121.40253724411</v>
       </c>
       <c r="O2" t="n">
+        <v>72121.4025372441</v>
+      </c>
+      <c r="P2" t="n">
         <v>72121.40253724411</v>
-      </c>
-      <c r="P2" t="n">
-        <v>72121.4025372441</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="I6" t="n">
-        <v>-91401.47950470763</v>
+        <v>-92140.83611662328</v>
       </c>
       <c r="J6" t="n">
-        <v>21427.69922289603</v>
+        <v>20688.34261098039</v>
       </c>
       <c r="K6" t="n">
-        <v>21427.69922289604</v>
+        <v>20688.34261098038</v>
       </c>
       <c r="L6" t="n">
-        <v>21427.69922289602</v>
+        <v>20688.34261098038</v>
       </c>
       <c r="M6" t="n">
-        <v>21427.69922289602</v>
+        <v>20688.34261098038</v>
       </c>
       <c r="N6" t="n">
-        <v>21427.69922289604</v>
+        <v>20688.34261098038</v>
       </c>
       <c r="O6" t="n">
-        <v>21427.69922289604</v>
+        <v>20688.34261098038</v>
       </c>
       <c r="P6" t="n">
-        <v>21427.69922289603</v>
+        <v>20688.34261098039</v>
       </c>
     </row>
   </sheetData>
@@ -36521,7 +36521,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -36530,7 +36530,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -36758,16 +36758,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -36834,7 +36834,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P29" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>58.3846844139612</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -37001,16 +37001,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,10 +37162,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37235,19 +37235,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N34" t="n">
-        <v>205.1467494379689</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -37390,7 +37390,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -37472,13 +37472,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37715,7 +37715,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37864,10 +37864,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="N43" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>236.2898988798406</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
